--- a/学生/２詳細設計/画面レイアウト.xlsx
+++ b/学生/２詳細設計/画面レイアウト.xlsx
@@ -4,126 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9875" tabRatio="917" activeTab="3"/>
+    <workbookView windowWidth="16515" windowHeight="10425" tabRatio="917"/>
   </bookViews>
   <sheets>
-    <sheet name="項目定義書＿学生登録" sheetId="1" r:id="rId1"/>
-    <sheet name="項目定義書＿学生一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="学生登録_画面レイアウト" sheetId="3" r:id="rId3"/>
-    <sheet name="学生一覧_画面レイアウﾄ" sheetId="5" r:id="rId4"/>
+    <sheet name="学生登録_画面レイアウト" sheetId="3" r:id="rId1"/>
+    <sheet name="学生一覧_画面レイアウﾄ" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
-  <si>
-    <t>項番</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>部品</t>
-  </si>
-  <si>
-    <t>入力チェック</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>学生ID</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>：つけ</t>
-  </si>
-  <si>
-    <t>入力欄</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>数字のみ</t>
-  </si>
-  <si>
-    <t>学生名前：</t>
-  </si>
-  <si>
-    <t>日本語のみかつ桁数5</t>
-  </si>
-  <si>
-    <t>生年月日：</t>
-  </si>
-  <si>
-    <t>フォーマット：yyyy-mm-dd hh:mm</t>
-  </si>
-  <si>
-    <t>年齢：</t>
-  </si>
-  <si>
-    <t>数字のみかつ&gt;18</t>
-  </si>
-  <si>
-    <t>得点：</t>
-  </si>
-  <si>
-    <t>数字のみかつ&gt;0</t>
-  </si>
-  <si>
-    <t>クラスID：</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ｔｄ</t>
-  </si>
-  <si>
-    <t>学生名前</t>
-  </si>
-  <si>
-    <t>生年月日</t>
-  </si>
-  <si>
-    <t>年齢</t>
-  </si>
-  <si>
-    <t>得点</t>
-  </si>
-  <si>
-    <t>クラスID</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>データの削除は[a]タグで使います</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,14 +32,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,7 +46,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,40 +91,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,17 +113,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,8 +152,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,13 +174,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,7 +184,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +226,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,67 +274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,19 +298,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,31 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,30 +358,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,17 +378,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,30 +415,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +460,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -599,152 +481,150 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -808,53 +688,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38735</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>543560</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>48895</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図形 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5654040" y="178435"/>
-          <a:ext cx="6059805" cy="8420100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -875,8 +708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636270" y="186690"/>
-          <a:ext cx="5734685" cy="4842510"/>
+          <a:off x="704850" y="190500"/>
+          <a:ext cx="6351905" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,8 +823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683895" y="1341120"/>
-          <a:ext cx="533400" cy="205740"/>
+          <a:off x="752475" y="1371600"/>
+          <a:ext cx="533400" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,8 +881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1226820" y="253365"/>
-          <a:ext cx="1566545" cy="140335"/>
+          <a:off x="1295400" y="257175"/>
+          <a:ext cx="1772285" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,8 +932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1291590" y="430530"/>
-          <a:ext cx="1588135" cy="130810"/>
+          <a:off x="1428750" y="438150"/>
+          <a:ext cx="1725295" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,8 +1082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266190" y="620395"/>
-          <a:ext cx="1663700" cy="111760"/>
+          <a:off x="1403350" y="631825"/>
+          <a:ext cx="1800860" cy="115570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1399,8 +1232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1134745" y="788035"/>
-          <a:ext cx="1519555" cy="130810"/>
+          <a:off x="1203325" y="803275"/>
+          <a:ext cx="1725295" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,8 +1382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1147445" y="968375"/>
-          <a:ext cx="1519555" cy="130810"/>
+          <a:off x="1216025" y="987425"/>
+          <a:ext cx="1725295" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,8 +1532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1243965" y="1129665"/>
-          <a:ext cx="1588135" cy="130810"/>
+          <a:off x="1381125" y="1152525"/>
+          <a:ext cx="1725295" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1832,7 +1665,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1855,7 +1688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123825" y="133350"/>
-          <a:ext cx="5233035" cy="6078855"/>
+          <a:ext cx="5781675" cy="6219825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,8 +1746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="421640"/>
-          <a:ext cx="4016375" cy="976630"/>
+          <a:off x="209550" y="429260"/>
+          <a:ext cx="4427855" cy="999490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,8 +1915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="401955"/>
-          <a:ext cx="3997960" cy="253365"/>
+          <a:off x="200025" y="409575"/>
+          <a:ext cx="4409440" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2156,8 +1989,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="514350" y="392430"/>
-          <a:ext cx="9525" cy="1015365"/>
+          <a:off x="514350" y="400050"/>
+          <a:ext cx="9525" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2200,8 +2033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1169670" y="411480"/>
-          <a:ext cx="9525" cy="1015365"/>
+          <a:off x="1238250" y="419100"/>
+          <a:ext cx="9525" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2244,8 +2077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2264410" y="443230"/>
-          <a:ext cx="15875" cy="983615"/>
+          <a:off x="2470150" y="450850"/>
+          <a:ext cx="15875" cy="1006475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2288,8 +2121,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2611755" y="455930"/>
-          <a:ext cx="6350" cy="980440"/>
+          <a:off x="2886075" y="463550"/>
+          <a:ext cx="6350" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2332,8 +2165,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3011805" y="392430"/>
-          <a:ext cx="9525" cy="1024890"/>
+          <a:off x="3286125" y="400050"/>
+          <a:ext cx="9525" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2376,8 +2209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3508375" y="443230"/>
-          <a:ext cx="15875" cy="964565"/>
+          <a:off x="3851275" y="450850"/>
+          <a:ext cx="15875" cy="987425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2420,8 +2253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="171450" y="803910"/>
-          <a:ext cx="4046220" cy="19050"/>
+          <a:off x="171450" y="819150"/>
+          <a:ext cx="4457700" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2464,8 +2297,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="193675" y="1003300"/>
-          <a:ext cx="4046220" cy="15240"/>
+          <a:off x="193675" y="1022350"/>
+          <a:ext cx="4457700" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2508,8 +2341,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="215900" y="1173480"/>
-          <a:ext cx="4046220" cy="15875"/>
+          <a:off x="215900" y="1196975"/>
+          <a:ext cx="4457700" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2553,7 +2386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="133350" y="123825"/>
-          <a:ext cx="5233035" cy="6078855"/>
+          <a:ext cx="5781675" cy="6219825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,8 +2543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="218440" y="421005"/>
-          <a:ext cx="4473575" cy="998855"/>
+          <a:off x="218440" y="428625"/>
+          <a:ext cx="4953635" cy="1021715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,8 +2811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="208915" y="401320"/>
-          <a:ext cx="4523740" cy="253365"/>
+          <a:off x="208915" y="408940"/>
+          <a:ext cx="5003800" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3151,8 +2984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="523240" y="391795"/>
-          <a:ext cx="9525" cy="1015365"/>
+          <a:off x="523240" y="399415"/>
+          <a:ext cx="9525" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3195,8 +3028,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1178560" y="410845"/>
-          <a:ext cx="9525" cy="1015365"/>
+          <a:off x="1247140" y="418465"/>
+          <a:ext cx="9525" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3239,8 +3072,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2967355" y="391795"/>
-          <a:ext cx="9525" cy="1024890"/>
+          <a:off x="3241675" y="399415"/>
+          <a:ext cx="9525" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3283,8 +3116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3334385" y="412115"/>
-          <a:ext cx="15875" cy="964565"/>
+          <a:off x="3677285" y="419735"/>
+          <a:ext cx="15875" cy="987425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3327,8 +3160,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="180340" y="792480"/>
-          <a:ext cx="4490720" cy="29845"/>
+          <a:off x="180340" y="807720"/>
+          <a:ext cx="4970780" cy="29845"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3371,8 +3204,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="202565" y="1017905"/>
-          <a:ext cx="4468495" cy="3175"/>
+          <a:off x="202565" y="1040765"/>
+          <a:ext cx="4948555" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3415,8 +3248,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="224790" y="1165860"/>
-          <a:ext cx="4438650" cy="22860"/>
+          <a:off x="224790" y="1188720"/>
+          <a:ext cx="4918710" cy="26670"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3459,8 +3292,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7736205" y="2586990"/>
-          <a:ext cx="3810" cy="180975"/>
+          <a:off x="8559165" y="2644140"/>
+          <a:ext cx="3810" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3503,8 +3336,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9705975" y="1726565"/>
-          <a:ext cx="12065" cy="639445"/>
+          <a:off x="10734675" y="1764665"/>
+          <a:ext cx="12065" cy="654685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3547,8 +3380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4234815" y="1815465"/>
-          <a:ext cx="796290" cy="344805"/>
+          <a:off x="4646295" y="1853565"/>
+          <a:ext cx="933450" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -3604,8 +3437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6802120" y="1439545"/>
-          <a:ext cx="5233035" cy="6082665"/>
+          <a:off x="7556500" y="1470025"/>
+          <a:ext cx="5781675" cy="6219825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3762,8 +3595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="1903730"/>
-          <a:ext cx="4288155" cy="534670"/>
+          <a:off x="7640955" y="1945640"/>
+          <a:ext cx="4768215" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3948,8 +3781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875520" y="4079875"/>
-          <a:ext cx="1111885" cy="392430"/>
+          <a:off x="10972165" y="4171315"/>
+          <a:ext cx="1181100" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -4104,8 +3937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="1864995"/>
-          <a:ext cx="4281805" cy="253365"/>
+          <a:off x="7640955" y="1906905"/>
+          <a:ext cx="4761865" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4277,8 +4110,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6792595" y="1439545"/>
-          <a:ext cx="3810" cy="180975"/>
+          <a:off x="7546975" y="1470025"/>
+          <a:ext cx="3810" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4321,8 +4154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7227570" y="1863090"/>
-          <a:ext cx="9525" cy="253365"/>
+          <a:off x="7981950" y="1905000"/>
+          <a:ext cx="9525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4365,8 +4198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7827645" y="1903095"/>
-          <a:ext cx="9525" cy="253365"/>
+          <a:off x="8650605" y="1945005"/>
+          <a:ext cx="9525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4409,8 +4242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9189085" y="1868170"/>
-          <a:ext cx="9525" cy="253365"/>
+          <a:off x="10149205" y="1910080"/>
+          <a:ext cx="9525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4453,8 +4286,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9624695" y="1848485"/>
-          <a:ext cx="9525" cy="253365"/>
+          <a:off x="10653395" y="1890395"/>
+          <a:ext cx="9525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4497,8 +4330,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10011410" y="1856105"/>
-          <a:ext cx="1270" cy="620395"/>
+          <a:off x="11108690" y="1898015"/>
+          <a:ext cx="1270" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4541,8 +4374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10519410" y="1893570"/>
-          <a:ext cx="9525" cy="253365"/>
+          <a:off x="11685270" y="1935480"/>
+          <a:ext cx="9525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4585,8 +4418,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486660" y="408305"/>
-          <a:ext cx="9525" cy="1015365"/>
+          <a:off x="2760980" y="415925"/>
+          <a:ext cx="9525" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4629,8 +4462,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3851275" y="414655"/>
-          <a:ext cx="9525" cy="1015365"/>
+          <a:off x="4262755" y="422275"/>
+          <a:ext cx="9525" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4914,231 +4747,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
-  <cols>
-    <col min="4" max="4" width="27.8796296296296" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5147,175 +4764,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="29.1296296296296" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
